--- a/testdata/datadrivenfile.xlsx
+++ b/testdata/datadrivenfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E79A96-8900-47ED-BA76-DEA936B55C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD419716-2F10-445B-A143-DC956075FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="99">
   <si>
     <t>TestCase</t>
   </si>
@@ -192,18 +192,6 @@
   </si>
   <si>
     <t>checkoutdata</t>
-  </si>
-  <si>
-    <t>12346</t>
-  </si>
-  <si>
-    <t>HP LP3066</t>
-  </si>
-  <si>
-    <t>12347</t>
-  </si>
-  <si>
-    <t>HP LP3067</t>
   </si>
   <si>
     <t>Telephone</t>
@@ -336,12 +324,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,9 +497,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -517,79 +512,82 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,7 +945,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -955,7 +953,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -972,10 +970,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L84"/>
+  <dimension ref="A1:L82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1017,13 +1015,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -1046,7 +1044,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>30</v>
@@ -1075,7 +1073,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>30</v>
@@ -1104,7 +1102,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>30</v>
@@ -1127,7 +1125,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
       <c r="F6" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>30</v>
@@ -1154,7 +1152,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>30</v>
@@ -1181,7 +1179,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>30</v>
@@ -1208,7 +1206,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>30</v>
@@ -1264,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="22" t="s">
@@ -1291,7 +1289,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G12" s="22" t="s">
         <v>30</v>
@@ -1318,13 +1316,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -1347,13 +1345,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>16</v>
@@ -1376,7 +1374,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>30</v>
@@ -1405,7 +1403,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>30</v>
@@ -1697,15 +1695,15 @@
         <v>3</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="18" t="s">
+      <c r="D39" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="32" t="s">
         <v>49</v>
       </c>
       <c r="F39" s="20" t="s">
@@ -1717,16 +1715,16 @@
         <v>3</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>58</v>
+      <c r="D40" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>9</v>
@@ -1737,19 +1735,17 @@
         <v>3</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C41" s="6"/>
       <c r="D41" s="18" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1757,16 +1753,16 @@
         <v>3</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="18" t="s">
-        <v>30</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1775,11 +1771,9 @@
         <v>3</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C43" s="6"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
         <v>49</v>
@@ -1793,10 +1787,14 @@
         <v>3</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="E44" s="18" t="s">
         <v>49</v>
       </c>
@@ -1809,13 +1807,13 @@
         <v>3</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E45" s="18" t="s">
         <v>49</v>
@@ -1829,13 +1827,13 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E46" s="18" t="s">
         <v>49</v>
@@ -1849,10 +1847,10 @@
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>30</v>
@@ -1869,10 +1867,10 @@
         <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>30</v>
@@ -1889,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>30</v>
@@ -1909,13 +1907,13 @@
         <v>3</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>49</v>
@@ -1924,67 +1922,85 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>16</v>
+    <row r="53" spans="1:12">
+      <c r="A53" s="26" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J54" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="K54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="A55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>7</v>
+      <c r="L55" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -1995,33 +2011,33 @@
         <v>13</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F56" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J56" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G56" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>85</v>
-      </c>
       <c r="K56" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L56" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L56" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2029,37 +2045,37 @@
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>13</v>
+      <c r="B57" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I57" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K57" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L57" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2068,64 +2084,62 @@
         <v>3</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I58" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>85</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
       <c r="K58" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L58" s="24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
+      <c r="G59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>81</v>
+      </c>
       <c r="K59" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L59" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="L59" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2133,35 +2147,35 @@
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="27" t="s">
-        <v>13</v>
+      <c r="B60" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24" t="s">
-        <v>83</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="24"/>
       <c r="H60" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I60" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L60" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2170,32 +2184,32 @@
         <v>3</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" s="24"/>
-      <c r="H61" s="6" t="s">
-        <v>74</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G61" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" s="6"/>
       <c r="I61" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J61" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L61" s="24" t="s">
         <v>16</v>
@@ -2205,33 +2219,33 @@
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G62" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J62" s="24" t="s">
-        <v>85</v>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L62" s="24" t="s">
         <v>16</v>
@@ -2241,33 +2255,35 @@
       <c r="A63" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B63" s="27" t="s">
-        <v>13</v>
+      <c r="B63" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="I63" s="24"/>
+        <v>86</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="J63" s="25" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K63" s="24" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L63" s="24" t="s">
         <v>16</v>
@@ -2278,34 +2294,34 @@
         <v>3</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+      <c r="J64" s="24" t="s">
+        <v>81</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L64" s="24" t="s">
         <v>16</v>
@@ -2315,110 +2331,101 @@
       <c r="A65" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G65" s="24" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J65" s="24" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K65" s="24" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L65" s="24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
-      <c r="A66" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E66" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="H66" s="6" t="s">
+    <row r="68" spans="1:12">
+      <c r="A68" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="I66" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J66" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" s="24" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
-      <c r="A70" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" s="3" t="s">
+      <c r="H70" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="H70" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>7</v>
+      <c r="I70" s="28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -2426,27 +2433,27 @@
         <v>3</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F71" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I71" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" s="28" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2458,25 +2465,23 @@
         <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>95</v>
-      </c>
+      <c r="E72" s="5"/>
       <c r="F72" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I72" s="28" t="s">
-        <v>9</v>
+        <v>93</v>
+      </c>
+      <c r="I72" s="31" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -2484,28 +2489,26 @@
         <v>3</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F73" s="28"/>
       <c r="G73" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I73" s="28" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -2513,25 +2516,25 @@
         <v>3</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D74" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>90</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="F74" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="G74" s="6"/>
       <c r="H74" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I74" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="I74" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2540,24 +2543,24 @@
         <v>3</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F75" s="28"/>
+        <v>91</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>15</v>
+      </c>
       <c r="G75" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H75" s="28" t="s">
-        <v>97</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="H75" s="28"/>
       <c r="I75" s="28" t="s">
         <v>16</v>
       </c>
@@ -2567,56 +2570,52 @@
         <v>3</v>
       </c>
       <c r="B76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="16.5" customHeight="1">
+      <c r="A77" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D76" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" s="6"/>
-      <c r="H76" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="I76" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12">
-      <c r="A77" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H77" s="28"/>
+        <v>94</v>
+      </c>
+      <c r="H77" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="I77" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" ht="16.5" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
@@ -2624,15 +2623,23 @@
         <v>13</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="28"/>
+      <c r="E78" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H78" s="28" t="s">
+        <v>93</v>
+      </c>
       <c r="I78" s="28" t="s">
         <v>16</v>
       </c>
@@ -2645,22 +2652,22 @@
         <v>14</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D79" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D79" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>16</v>
@@ -2674,22 +2681,22 @@
         <v>13</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F80" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>16</v>
@@ -2700,22 +2707,22 @@
         <v>3</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D81" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F81" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="H81" s="28" t="s">
         <v>97</v>
@@ -2732,87 +2739,29 @@
         <v>13</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F82" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H82" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I82" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A83" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H83" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="I83" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A84" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H84" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{F2868DA8-3F23-42F4-911E-DE2374F4C520}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{515660FB-020A-435D-9519-D146A3D5DB07}"/>
@@ -2837,65 +2786,62 @@
     <hyperlink ref="C29" r:id="rId21" xr:uid="{62C287CC-7DEF-48D4-9E0A-8BC6BD1B69FA}"/>
     <hyperlink ref="C31" r:id="rId22" xr:uid="{E948DC9F-2FD9-4936-A0F4-E042C7AAA372}"/>
     <hyperlink ref="C34" r:id="rId23" xr:uid="{8B7CF241-6861-46FE-83DC-74406F9E963C}"/>
-    <hyperlink ref="C39" r:id="rId24" xr:uid="{D8B82D70-9D08-4537-B5FA-EF3E311B6E7B}"/>
-    <hyperlink ref="C43" r:id="rId25" xr:uid="{E949126B-B907-46E3-AF76-24E035A7869E}"/>
-    <hyperlink ref="C45" r:id="rId26" xr:uid="{08F80FF0-A868-44AF-9632-7D25D86B3557}"/>
-    <hyperlink ref="C46" r:id="rId27" xr:uid="{CAD07878-9DCF-4030-A4F4-0651FB8667F5}"/>
-    <hyperlink ref="C47" r:id="rId28" xr:uid="{3D61602A-E190-451F-89B8-77058731EAA6}"/>
-    <hyperlink ref="C48" r:id="rId29" display="kishore8@gmail.com" xr:uid="{8C249AB3-8159-4921-84FE-88B486C89713}"/>
-    <hyperlink ref="C49" r:id="rId30" display="kishore8@gmail.com" xr:uid="{EBDA2042-E14A-4C8F-8FBF-68534BF86960}"/>
-    <hyperlink ref="C50" r:id="rId31" xr:uid="{00080ADC-B800-49B4-9002-E8605C950633}"/>
-    <hyperlink ref="C51" r:id="rId32" xr:uid="{D94BDB8F-48F5-4924-A062-9A5EEDAFFA98}"/>
-    <hyperlink ref="C40" r:id="rId33" xr:uid="{95301F26-F21B-4871-9F32-E23AD7EC623E}"/>
-    <hyperlink ref="C41" r:id="rId34" xr:uid="{5F59F5AB-7D15-44CE-A943-AF0AD92A6E69}"/>
-    <hyperlink ref="C56" r:id="rId35" xr:uid="{B4D327F6-4FAB-44B2-90C5-8330EBA3510D}"/>
-    <hyperlink ref="C57" r:id="rId36" xr:uid="{7376DCF3-8CCA-4695-BBE3-F474438307BD}"/>
-    <hyperlink ref="H56" r:id="rId37" xr:uid="{33A28DE7-2E88-419B-A9B4-284FAD875B46}"/>
-    <hyperlink ref="H57" r:id="rId38" xr:uid="{C1F7F2B7-9ACC-4FA5-AB90-64638D852111}"/>
-    <hyperlink ref="C58" r:id="rId39" xr:uid="{300389E4-79FD-469D-AE12-32FA622EEE9F}"/>
-    <hyperlink ref="H58" r:id="rId40" xr:uid="{2C1A9E6C-C74F-4A26-914F-E496499C0253}"/>
-    <hyperlink ref="C59" r:id="rId41" xr:uid="{A4F142FA-A82F-422A-B544-A1AF995F8899}"/>
-    <hyperlink ref="C60" r:id="rId42" xr:uid="{3F462088-38D3-4512-86D9-BC6ABD2B3AD0}"/>
-    <hyperlink ref="H60" r:id="rId43" xr:uid="{203F9DB5-CE94-499B-827F-E5AF1B916564}"/>
-    <hyperlink ref="C61" r:id="rId44" xr:uid="{AB8D400E-9E2E-4F3B-A9CF-9D543F3D5560}"/>
-    <hyperlink ref="H61" r:id="rId45" xr:uid="{96019887-8549-4548-905B-95E00A52118B}"/>
-    <hyperlink ref="C62" r:id="rId46" xr:uid="{F84F6B5D-BC57-451B-A376-36CC4F6813B4}"/>
-    <hyperlink ref="C63" r:id="rId47" xr:uid="{8764E14E-6305-41B3-AAB0-CDB7506C5D01}"/>
-    <hyperlink ref="H63" r:id="rId48" xr:uid="{BC1B4142-A019-4895-9DE5-CB755BCF9232}"/>
-    <hyperlink ref="C64" r:id="rId49" xr:uid="{882A36CA-03FE-4B1B-BA94-D3495FFDC7BF}"/>
-    <hyperlink ref="H64" r:id="rId50" display="akshaysnaik1111@gmail.com" xr:uid="{10722048-D4DF-489A-9D15-6BB24CE4246B}"/>
-    <hyperlink ref="C65" r:id="rId51" xr:uid="{C127FA52-AF80-4052-BE5C-E71B2A74AB2B}"/>
-    <hyperlink ref="H65" r:id="rId52" display="akshaysnaik1111@gmail.com" xr:uid="{0E8E0BD5-050F-415A-B4C1-1AE4F8E98C22}"/>
-    <hyperlink ref="C66" r:id="rId53" xr:uid="{7639EC3E-30E9-4935-9778-1A7D761560F2}"/>
-    <hyperlink ref="H66" r:id="rId54" display="akshaysnaik1111@gmail.com" xr:uid="{BCC0B864-73F3-42F3-B581-E012333D7B2C}"/>
-    <hyperlink ref="C71" r:id="rId55" xr:uid="{57602DDD-93FD-4200-AE43-EC7F7C9442ED}"/>
-    <hyperlink ref="G71" r:id="rId56" xr:uid="{343A72F5-F1B9-4628-9951-7726BFF411F2}"/>
-    <hyperlink ref="C72" r:id="rId57" xr:uid="{CA92811F-0486-4A6A-BE92-C44A9DA1CB4C}"/>
-    <hyperlink ref="C73" r:id="rId58" xr:uid="{30B712BF-8DF1-4793-90A7-2AF8879110EF}"/>
-    <hyperlink ref="C74" r:id="rId59" xr:uid="{521E093E-3871-47EA-A810-0823350FF8FD}"/>
-    <hyperlink ref="C75" r:id="rId60" xr:uid="{7811296C-F17C-4C62-8C97-F41CBAC63160}"/>
-    <hyperlink ref="C76" r:id="rId61" xr:uid="{EA96D4B8-017C-44BD-9004-78A8403714BA}"/>
-    <hyperlink ref="C77" r:id="rId62" xr:uid="{4F8C5698-FEF5-47B7-BBF3-23EF5FF86C08}"/>
-    <hyperlink ref="C78" r:id="rId63" xr:uid="{82336445-45CD-4AEF-B4E1-BBF5C4A2FD8B}"/>
-    <hyperlink ref="C79" r:id="rId64" xr:uid="{598E7C42-B0CD-480A-B3FF-EEEAAE6E6109}"/>
-    <hyperlink ref="C80" r:id="rId65" xr:uid="{1AB0C829-7537-42A3-A5A7-3568F0C63A74}"/>
-    <hyperlink ref="G72" r:id="rId66" xr:uid="{84263A6E-3CE2-4A68-8C43-47B8319814CD}"/>
-    <hyperlink ref="G73" r:id="rId67" xr:uid="{D22537E4-5AD0-44A4-9C90-F6B162AB0004}"/>
-    <hyperlink ref="G74" r:id="rId68" xr:uid="{A94AC676-1879-4D35-91CD-3526087B2ED6}"/>
-    <hyperlink ref="G75" r:id="rId69" xr:uid="{605B9622-B612-4D42-9DC7-63838E1538A2}"/>
-    <hyperlink ref="G77" r:id="rId70" xr:uid="{DE96DBAE-2EFE-479A-9525-23DB9261E1BC}"/>
-    <hyperlink ref="G79" r:id="rId71" xr:uid="{AB845F8F-9B99-47CD-B542-652766B42D0D}"/>
-    <hyperlink ref="G80" r:id="rId72" display="prajwal8@gmail.com" xr:uid="{A81CBAA8-E78C-4901-B0F3-4C0156D61F19}"/>
-    <hyperlink ref="C81" r:id="rId73" xr:uid="{EEA40352-7FAB-4E91-B4D0-AA8D74632D7E}"/>
-    <hyperlink ref="C82" r:id="rId74" xr:uid="{0FD76C9A-4D02-48C7-BC39-DD4BC48C844D}"/>
-    <hyperlink ref="G81" r:id="rId75" display="prajwal8@gmail" xr:uid="{03A2BC9B-A6FE-4ABD-BCD7-F2CA6E5CD40A}"/>
-    <hyperlink ref="G82" r:id="rId76" xr:uid="{AFF3D6FA-9926-4621-969B-8E626C795B33}"/>
-    <hyperlink ref="C83" r:id="rId77" xr:uid="{686BEDCF-16C1-4B17-BD93-BE2707E3486A}"/>
-    <hyperlink ref="G83" r:id="rId78" xr:uid="{8A23E30A-62C3-4752-8B74-9E371A079F4B}"/>
-    <hyperlink ref="C84" r:id="rId79" xr:uid="{4A7A553E-0629-4969-A195-8C040F60F4F8}"/>
-    <hyperlink ref="G84" r:id="rId80" xr:uid="{BA2508D0-0E3D-46A5-A89A-2E8EC3A43F2B}"/>
+    <hyperlink ref="C42" r:id="rId24" xr:uid="{E949126B-B907-46E3-AF76-24E035A7869E}"/>
+    <hyperlink ref="C44" r:id="rId25" xr:uid="{08F80FF0-A868-44AF-9632-7D25D86B3557}"/>
+    <hyperlink ref="C45" r:id="rId26" xr:uid="{CAD07878-9DCF-4030-A4F4-0651FB8667F5}"/>
+    <hyperlink ref="C46" r:id="rId27" xr:uid="{3D61602A-E190-451F-89B8-77058731EAA6}"/>
+    <hyperlink ref="C47" r:id="rId28" display="kishore8@gmail.com" xr:uid="{8C249AB3-8159-4921-84FE-88B486C89713}"/>
+    <hyperlink ref="C48" r:id="rId29" display="kishore8@gmail.com" xr:uid="{EBDA2042-E14A-4C8F-8FBF-68534BF86960}"/>
+    <hyperlink ref="C49" r:id="rId30" xr:uid="{00080ADC-B800-49B4-9002-E8605C950633}"/>
+    <hyperlink ref="C50" r:id="rId31" xr:uid="{D94BDB8F-48F5-4924-A062-9A5EEDAFFA98}"/>
+    <hyperlink ref="C39" r:id="rId32" xr:uid="{95301F26-F21B-4871-9F32-E23AD7EC623E}"/>
+    <hyperlink ref="C40" r:id="rId33" xr:uid="{5F59F5AB-7D15-44CE-A943-AF0AD92A6E69}"/>
+    <hyperlink ref="C55" r:id="rId34" xr:uid="{B4D327F6-4FAB-44B2-90C5-8330EBA3510D}"/>
+    <hyperlink ref="C56" r:id="rId35" xr:uid="{7376DCF3-8CCA-4695-BBE3-F474438307BD}"/>
+    <hyperlink ref="H55" r:id="rId36" xr:uid="{33A28DE7-2E88-419B-A9B4-284FAD875B46}"/>
+    <hyperlink ref="H56" r:id="rId37" xr:uid="{C1F7F2B7-9ACC-4FA5-AB90-64638D852111}"/>
+    <hyperlink ref="C57" r:id="rId38" xr:uid="{300389E4-79FD-469D-AE12-32FA622EEE9F}"/>
+    <hyperlink ref="H57" r:id="rId39" xr:uid="{2C1A9E6C-C74F-4A26-914F-E496499C0253}"/>
+    <hyperlink ref="C58" r:id="rId40" xr:uid="{A4F142FA-A82F-422A-B544-A1AF995F8899}"/>
+    <hyperlink ref="C59" r:id="rId41" xr:uid="{3F462088-38D3-4512-86D9-BC6ABD2B3AD0}"/>
+    <hyperlink ref="H59" r:id="rId42" xr:uid="{203F9DB5-CE94-499B-827F-E5AF1B916564}"/>
+    <hyperlink ref="C60" r:id="rId43" xr:uid="{AB8D400E-9E2E-4F3B-A9CF-9D543F3D5560}"/>
+    <hyperlink ref="H60" r:id="rId44" xr:uid="{96019887-8549-4548-905B-95E00A52118B}"/>
+    <hyperlink ref="C61" r:id="rId45" xr:uid="{F84F6B5D-BC57-451B-A376-36CC4F6813B4}"/>
+    <hyperlink ref="C62" r:id="rId46" xr:uid="{8764E14E-6305-41B3-AAB0-CDB7506C5D01}"/>
+    <hyperlink ref="H62" r:id="rId47" xr:uid="{BC1B4142-A019-4895-9DE5-CB755BCF9232}"/>
+    <hyperlink ref="C63" r:id="rId48" xr:uid="{882A36CA-03FE-4B1B-BA94-D3495FFDC7BF}"/>
+    <hyperlink ref="H63" r:id="rId49" display="akshaysnaik1111@gmail.com" xr:uid="{10722048-D4DF-489A-9D15-6BB24CE4246B}"/>
+    <hyperlink ref="C64" r:id="rId50" xr:uid="{C127FA52-AF80-4052-BE5C-E71B2A74AB2B}"/>
+    <hyperlink ref="H64" r:id="rId51" display="akshaysnaik1111@gmail.com" xr:uid="{0E8E0BD5-050F-415A-B4C1-1AE4F8E98C22}"/>
+    <hyperlink ref="C65" r:id="rId52" xr:uid="{7639EC3E-30E9-4935-9778-1A7D761560F2}"/>
+    <hyperlink ref="H65" r:id="rId53" display="akshaysnaik1111@gmail.com" xr:uid="{BCC0B864-73F3-42F3-B581-E012333D7B2C}"/>
+    <hyperlink ref="C70" r:id="rId54" xr:uid="{CA92811F-0486-4A6A-BE92-C44A9DA1CB4C}"/>
+    <hyperlink ref="C71" r:id="rId55" xr:uid="{30B712BF-8DF1-4793-90A7-2AF8879110EF}"/>
+    <hyperlink ref="C72" r:id="rId56" xr:uid="{521E093E-3871-47EA-A810-0823350FF8FD}"/>
+    <hyperlink ref="C73" r:id="rId57" xr:uid="{7811296C-F17C-4C62-8C97-F41CBAC63160}"/>
+    <hyperlink ref="C74" r:id="rId58" xr:uid="{EA96D4B8-017C-44BD-9004-78A8403714BA}"/>
+    <hyperlink ref="C75" r:id="rId59" xr:uid="{4F8C5698-FEF5-47B7-BBF3-23EF5FF86C08}"/>
+    <hyperlink ref="C76" r:id="rId60" xr:uid="{82336445-45CD-4AEF-B4E1-BBF5C4A2FD8B}"/>
+    <hyperlink ref="C77" r:id="rId61" xr:uid="{598E7C42-B0CD-480A-B3FF-EEEAAE6E6109}"/>
+    <hyperlink ref="C78" r:id="rId62" xr:uid="{1AB0C829-7537-42A3-A5A7-3568F0C63A74}"/>
+    <hyperlink ref="G70" r:id="rId63" xr:uid="{84263A6E-3CE2-4A68-8C43-47B8319814CD}"/>
+    <hyperlink ref="G71" r:id="rId64" xr:uid="{D22537E4-5AD0-44A4-9C90-F6B162AB0004}"/>
+    <hyperlink ref="G72" r:id="rId65" xr:uid="{A94AC676-1879-4D35-91CD-3526087B2ED6}"/>
+    <hyperlink ref="G73" r:id="rId66" xr:uid="{605B9622-B612-4D42-9DC7-63838E1538A2}"/>
+    <hyperlink ref="G75" r:id="rId67" xr:uid="{DE96DBAE-2EFE-479A-9525-23DB9261E1BC}"/>
+    <hyperlink ref="G77" r:id="rId68" xr:uid="{AB845F8F-9B99-47CD-B542-652766B42D0D}"/>
+    <hyperlink ref="G78" r:id="rId69" display="prajwal8@gmail.com" xr:uid="{A81CBAA8-E78C-4901-B0F3-4C0156D61F19}"/>
+    <hyperlink ref="C79" r:id="rId70" xr:uid="{EEA40352-7FAB-4E91-B4D0-AA8D74632D7E}"/>
+    <hyperlink ref="C80" r:id="rId71" xr:uid="{0FD76C9A-4D02-48C7-BC39-DD4BC48C844D}"/>
+    <hyperlink ref="G79" r:id="rId72" display="prajwal8@gmail" xr:uid="{03A2BC9B-A6FE-4ABD-BCD7-F2CA6E5CD40A}"/>
+    <hyperlink ref="G80" r:id="rId73" xr:uid="{AFF3D6FA-9926-4621-969B-8E626C795B33}"/>
+    <hyperlink ref="C81" r:id="rId74" xr:uid="{686BEDCF-16C1-4B17-BD93-BE2707E3486A}"/>
+    <hyperlink ref="G81" r:id="rId75" xr:uid="{8A23E30A-62C3-4752-8B74-9E371A079F4B}"/>
+    <hyperlink ref="C82" r:id="rId76" xr:uid="{4A7A553E-0629-4969-A195-8C040F60F4F8}"/>
+    <hyperlink ref="G82" r:id="rId77" xr:uid="{BA2508D0-0E3D-46A5-A89A-2E8EC3A43F2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
--- a/testdata/datadrivenfile.xlsx
+++ b/testdata/datadrivenfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD419716-2F10-445B-A143-DC956075FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A591E5F-CFAB-4726-AC36-1956F4103744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="100">
   <si>
     <t>TestCase</t>
   </si>
@@ -143,9 +143,6 @@
     <t>ravi454</t>
   </si>
   <si>
-    <t>ravi30gmail.com</t>
-  </si>
-  <si>
     <t>ravi309@gmail</t>
   </si>
   <si>
@@ -318,18 +315,45 @@
   </si>
   <si>
     <t>7897654</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>abcde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -497,9 +521,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -512,82 +536,103 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -937,7 +982,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -945,7 +990,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -953,7 +998,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
@@ -970,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -995,7 +1040,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1015,13 +1060,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -1044,7 +1089,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>30</v>
@@ -1073,7 +1118,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>30</v>
@@ -1102,7 +1147,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>30</v>
@@ -1125,7 +1170,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
       <c r="F6" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>30</v>
@@ -1152,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>30</v>
@@ -1179,7 +1224,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>30</v>
@@ -1196,18 +1241,18 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="22" t="s">
-        <v>59</v>
-      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="22" t="s">
         <v>30</v>
       </c>
@@ -1223,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>18</v>
@@ -1234,10 +1279,10 @@
       <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="F10" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10"/>
       <c r="H10" s="22" t="s">
         <v>30</v>
       </c>
@@ -1250,10 +1295,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>18</v>
@@ -1264,10 +1309,10 @@
       <c r="F11" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="22" t="s">
-        <v>30</v>
-      </c>
+      <c r="G11" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="22"/>
       <c r="I11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1277,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>18</v>
@@ -1288,13 +1333,15 @@
       <c r="E12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="22"/>
+      <c r="F12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>65</v>
+      </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
       </c>
@@ -1304,10 +1351,10 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>18</v>
@@ -1319,10 +1366,10 @@
         <v>60</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -1333,10 +1380,10 @@
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>18</v>
@@ -1345,14 +1392,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>64</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="10" t="s">
         <v>16</v>
       </c>
@@ -1362,10 +1405,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>18</v>
@@ -1373,14 +1416,14 @@
       <c r="E15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="22" t="s">
-        <v>59</v>
+      <c r="F15" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>30</v>
+      <c r="H15" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -1393,17 +1436,17 @@
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>59</v>
+      <c r="C16" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>30</v>
@@ -1411,55 +1454,89 @@
       <c r="H16" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="3" t="s">
+      <c r="I16" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="14" customFormat="1">
-      <c r="A21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="14" customFormat="1">
+    <row r="22" spans="1:9" s="14" customFormat="1">
       <c r="A22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="12" t="s">
-        <v>14</v>
+      <c r="B22" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>36</v>
@@ -1471,12 +1548,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="14" customFormat="1">
+    <row r="23" spans="1:9" s="14" customFormat="1">
       <c r="A23" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>36</v>
@@ -1488,45 +1565,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="24" spans="1:9" s="14" customFormat="1">
+      <c r="A24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="C24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:9">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>17</v>
@@ -1535,14 +1612,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="D27" s="10" t="s">
         <v>17</v>
       </c>
@@ -1550,64 +1629,62 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>20</v>
@@ -1616,7 +1693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:9">
       <c r="A32" s="5" t="s">
         <v>3</v>
       </c>
@@ -1639,7 +1716,7 @@
         <v>14</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="10" t="s">
         <v>20</v>
@@ -1667,7 +1744,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1684,7 +1761,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>7</v>
@@ -1704,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="20" t="s">
         <v>9</v>
@@ -1724,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="20" t="s">
         <v>9</v>
@@ -1742,7 +1819,7 @@
         <v>30</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="20" t="s">
         <v>16</v>
@@ -1760,7 +1837,7 @@
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="18" t="s">
         <v>16</v>
@@ -1771,12 +1848,16 @@
         <v>3</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="18"/>
+        <v>13</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>30</v>
+      </c>
       <c r="E43" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F43" s="18" t="s">
         <v>16</v>
@@ -1787,16 +1868,16 @@
         <v>3</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="E44" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="18" t="s">
         <v>16</v>
@@ -1807,16 +1888,16 @@
         <v>3</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F45" s="18" t="s">
         <v>16</v>
@@ -1827,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>52</v>
@@ -1836,7 +1917,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>16</v>
@@ -1847,16 +1928,16 @@
         <v>3</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F47" s="18" t="s">
         <v>16</v>
@@ -1867,16 +1948,16 @@
         <v>3</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F48" s="18" t="s">
         <v>16</v>
@@ -1887,82 +1968,100 @@
         <v>3</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>30</v>
-      </c>
       <c r="E49" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>16</v>
+    <row r="52" spans="1:12">
+      <c r="A52" s="26" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="G53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J54" s="3" t="s">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>7</v>
+      <c r="G54" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J54" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K54" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="L54" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -1973,25 +2072,25 @@
         <v>13</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="24" t="s">
+      <c r="I55" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="J55" s="24" t="s">
         <v>81</v>
@@ -1999,7 +2098,7 @@
       <c r="K55" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L55" s="24" t="s">
+      <c r="L55" s="25" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2007,37 +2106,37 @@
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>13</v>
+      <c r="B56" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J56" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K56" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J56" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="K56" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L56" s="25" t="s">
+      <c r="L56" s="24" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2046,64 +2145,62 @@
         <v>3</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F57" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I57" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J57" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K57" s="24" t="s">
-        <v>71</v>
-      </c>
       <c r="L57" s="24" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H58" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
+      <c r="I58" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>80</v>
+      </c>
       <c r="K58" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="L58" s="24" t="s">
+      <c r="L58" s="25" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2111,35 +2208,35 @@
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="27" t="s">
-        <v>13</v>
+      <c r="B59" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="24"/>
+      <c r="H59" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J59" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K59" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E59" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I59" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J59" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K59" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L59" s="25" t="s">
+      <c r="L59" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2148,32 +2245,32 @@
         <v>3</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J60" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K60" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="24"/>
-      <c r="H60" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J60" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K60" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="L60" s="24" t="s">
         <v>16</v>
@@ -2183,30 +2280,30 @@
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G61" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="24" t="s">
+      <c r="H61" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="J61" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="K61" s="24" t="s">
         <v>71</v>
@@ -2219,33 +2316,35 @@
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>13</v>
+      <c r="B62" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="I62" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="K62" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E62" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F62" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I62" s="24"/>
-      <c r="J62" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K62" s="24" t="s">
-        <v>72</v>
       </c>
       <c r="L62" s="24" t="s">
         <v>16</v>
@@ -2256,34 +2355,34 @@
         <v>3</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C63" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F63" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K63" s="24" t="s">
         <v>70</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="I63" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J63" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>71</v>
       </c>
       <c r="L63" s="24" t="s">
         <v>16</v>
@@ -2293,32 +2392,32 @@
       <c r="A64" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="27" t="s">
         <v>13</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F64" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="H64" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I64" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H64" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I64" s="24" t="s">
+      <c r="J64" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="K64" s="24" t="s">
         <v>71</v>
@@ -2327,137 +2426,126 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E65" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I65" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="J65" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K65" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="L65" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="29" t="s">
+    <row r="67" spans="1:9">
+      <c r="A67" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="3" t="s">
+      <c r="H68" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="H69" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="D69" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I69" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E70" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D70" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F70" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="28" t="s">
         <v>92</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>93</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:9">
       <c r="A71" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>91</v>
-      </c>
+      <c r="E71" s="5"/>
       <c r="F71" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H71" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I71" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="I71" s="31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="5" t="s">
         <v>3</v>
       </c>
@@ -2465,142 +2553,144 @@
         <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D72" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E72" s="5"/>
-      <c r="F72" s="28" t="s">
+      <c r="F72" s="28"/>
+      <c r="G72" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I72" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F73" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G73" s="6"/>
+      <c r="H73" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="H72" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
-      <c r="A73" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="I73" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D73" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="28"/>
-      <c r="G73" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="I73" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
-      <c r="A74" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F74" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G74" s="6"/>
-      <c r="H74" s="28" t="s">
-        <v>93</v>
-      </c>
+      <c r="G74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="28"/>
       <c r="I74" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:9">
       <c r="A75" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" s="6" t="s">
-        <v>92</v>
-      </c>
+      <c r="E75" s="5"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="6"/>
       <c r="H75" s="28"/>
       <c r="I75" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:9" ht="16.5" customHeight="1">
       <c r="A76" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E76" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="28"/>
+      <c r="F76" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" s="28" t="s">
+        <v>92</v>
+      </c>
       <c r="I76" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="16.5" customHeight="1">
+    <row r="77" spans="1:9" ht="16.5" customHeight="1">
       <c r="A77" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>15</v>
@@ -2609,71 +2699,71 @@
         <v>94</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="16.5" customHeight="1">
+    <row r="78" spans="1:9" ht="16.5" customHeight="1">
       <c r="A78" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D78" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F78" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="16.5" customHeight="1">
+    <row r="79" spans="1:9" ht="16.5" customHeight="1">
       <c r="A79" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="H79" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="16.5" customHeight="1">
+    <row r="80" spans="1:9" ht="16.5" customHeight="1">
       <c r="A80" s="5" t="s">
         <v>3</v>
       </c>
@@ -2681,19 +2771,19 @@
         <v>13</v>
       </c>
       <c r="C80" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E80" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F80" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H80" s="28" t="s">
         <v>96</v>
@@ -2710,19 +2800,19 @@
         <v>13</v>
       </c>
       <c r="C81" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E81" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="F81" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H81" s="28" t="s">
         <v>97</v>
@@ -2731,117 +2821,89 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A82" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H82" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="I82" s="28" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{F2868DA8-3F23-42F4-911E-DE2374F4C520}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{515660FB-020A-435D-9519-D146A3D5DB07}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{975A6EC8-5123-4546-A268-7B42E5C7497E}"/>
-    <hyperlink ref="C12" r:id="rId4" xr:uid="{F5155FDC-81CC-496F-9932-E4CDDC60ADB8}"/>
+    <hyperlink ref="C9" r:id="rId3" xr:uid="{975A6EC8-5123-4546-A268-7B42E5C7497E}"/>
+    <hyperlink ref="C11" r:id="rId4" xr:uid="{F5155FDC-81CC-496F-9932-E4CDDC60ADB8}"/>
     <hyperlink ref="C3" r:id="rId5" xr:uid="{87CF84FC-1922-45E5-8D97-877AEFF1CAB5}"/>
     <hyperlink ref="C4" r:id="rId6" xr:uid="{FDE18F5D-316F-411E-B536-D4A50292AEAF}"/>
     <hyperlink ref="C5" r:id="rId7" xr:uid="{79C1D90D-19B0-4DF3-9466-B3AFCFB737B4}"/>
-    <hyperlink ref="C15" r:id="rId8" xr:uid="{C59D0771-43B7-4042-9275-ED86D3B007BA}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{1D925481-28E5-480B-8EB3-DA959D004C85}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{CF62C859-7DAD-44F5-A2D3-295B0D7F3D00}"/>
-    <hyperlink ref="C14" r:id="rId11" display="ravi44@gmail.com" xr:uid="{EBA32549-F482-4CE9-9023-1668122843F7}"/>
-    <hyperlink ref="C16" r:id="rId12" display="ravi454@gmail.com" xr:uid="{E959F1FA-4404-4897-A7FF-760B8E12AF59}"/>
-    <hyperlink ref="C25" r:id="rId13" display="ravi309@gmail.com" xr:uid="{979C3FDC-0CCB-4F23-9D9A-88DA92FDA58F}"/>
-    <hyperlink ref="C26" r:id="rId14" xr:uid="{AE1F78DA-CE7F-4264-8D55-CC7991AAFE0B}"/>
-    <hyperlink ref="C28" r:id="rId15" display="ravi400@gmail.com" xr:uid="{CFFE3094-3EFA-4E71-9D91-AC1B4BF9206F}"/>
-    <hyperlink ref="C30" r:id="rId16" display="ravi402@gmail.com" xr:uid="{4151E095-AD9C-49E5-B82B-41AF2E01B7D9}"/>
-    <hyperlink ref="C21" r:id="rId17" xr:uid="{CCDC1E8F-1149-487A-86F1-024148D8E2C0}"/>
-    <hyperlink ref="C22" r:id="rId18" xr:uid="{00B14212-2840-4C4A-84A5-FF4CA5DEDF45}"/>
-    <hyperlink ref="C23" r:id="rId19" xr:uid="{44E96261-593D-4993-9EF3-7108BCD829C9}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{C59D0771-43B7-4042-9275-ED86D3B007BA}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{1D925481-28E5-480B-8EB3-DA959D004C85}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{CF62C859-7DAD-44F5-A2D3-295B0D7F3D00}"/>
+    <hyperlink ref="C13" r:id="rId11" display="ravi44@gmail.com" xr:uid="{EBA32549-F482-4CE9-9023-1668122843F7}"/>
+    <hyperlink ref="C15" r:id="rId12" display="ravi454@gmail.com" xr:uid="{E959F1FA-4404-4897-A7FF-760B8E12AF59}"/>
+    <hyperlink ref="C26" r:id="rId13" xr:uid="{979C3FDC-0CCB-4F23-9D9A-88DA92FDA58F}"/>
+    <hyperlink ref="C27" r:id="rId14" xr:uid="{AE1F78DA-CE7F-4264-8D55-CC7991AAFE0B}"/>
+    <hyperlink ref="C29" r:id="rId15" display="ravi400@gmail.com" xr:uid="{CFFE3094-3EFA-4E71-9D91-AC1B4BF9206F}"/>
+    <hyperlink ref="C31" r:id="rId16" display="ravi402@gmail.com" xr:uid="{4151E095-AD9C-49E5-B82B-41AF2E01B7D9}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{CCDC1E8F-1149-487A-86F1-024148D8E2C0}"/>
+    <hyperlink ref="C23" r:id="rId18" xr:uid="{00B14212-2840-4C4A-84A5-FF4CA5DEDF45}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{44E96261-593D-4993-9EF3-7108BCD829C9}"/>
     <hyperlink ref="C33" r:id="rId20" display="ravi403@gmail.com" xr:uid="{6FB7FF3B-5934-41CE-9D99-086C307452E6}"/>
-    <hyperlink ref="C29" r:id="rId21" xr:uid="{62C287CC-7DEF-48D4-9E0A-8BC6BD1B69FA}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{E948DC9F-2FD9-4936-A0F4-E042C7AAA372}"/>
-    <hyperlink ref="C34" r:id="rId23" xr:uid="{8B7CF241-6861-46FE-83DC-74406F9E963C}"/>
-    <hyperlink ref="C42" r:id="rId24" xr:uid="{E949126B-B907-46E3-AF76-24E035A7869E}"/>
-    <hyperlink ref="C44" r:id="rId25" xr:uid="{08F80FF0-A868-44AF-9632-7D25D86B3557}"/>
-    <hyperlink ref="C45" r:id="rId26" xr:uid="{CAD07878-9DCF-4030-A4F4-0651FB8667F5}"/>
-    <hyperlink ref="C46" r:id="rId27" xr:uid="{3D61602A-E190-451F-89B8-77058731EAA6}"/>
-    <hyperlink ref="C47" r:id="rId28" display="kishore8@gmail.com" xr:uid="{8C249AB3-8159-4921-84FE-88B486C89713}"/>
-    <hyperlink ref="C48" r:id="rId29" display="kishore8@gmail.com" xr:uid="{EBDA2042-E14A-4C8F-8FBF-68534BF86960}"/>
-    <hyperlink ref="C49" r:id="rId30" xr:uid="{00080ADC-B800-49B4-9002-E8605C950633}"/>
-    <hyperlink ref="C50" r:id="rId31" xr:uid="{D94BDB8F-48F5-4924-A062-9A5EEDAFFA98}"/>
-    <hyperlink ref="C39" r:id="rId32" xr:uid="{95301F26-F21B-4871-9F32-E23AD7EC623E}"/>
-    <hyperlink ref="C40" r:id="rId33" xr:uid="{5F59F5AB-7D15-44CE-A943-AF0AD92A6E69}"/>
-    <hyperlink ref="C55" r:id="rId34" xr:uid="{B4D327F6-4FAB-44B2-90C5-8330EBA3510D}"/>
-    <hyperlink ref="C56" r:id="rId35" xr:uid="{7376DCF3-8CCA-4695-BBE3-F474438307BD}"/>
-    <hyperlink ref="H55" r:id="rId36" xr:uid="{33A28DE7-2E88-419B-A9B4-284FAD875B46}"/>
-    <hyperlink ref="H56" r:id="rId37" xr:uid="{C1F7F2B7-9ACC-4FA5-AB90-64638D852111}"/>
-    <hyperlink ref="C57" r:id="rId38" xr:uid="{300389E4-79FD-469D-AE12-32FA622EEE9F}"/>
-    <hyperlink ref="H57" r:id="rId39" xr:uid="{2C1A9E6C-C74F-4A26-914F-E496499C0253}"/>
-    <hyperlink ref="C58" r:id="rId40" xr:uid="{A4F142FA-A82F-422A-B544-A1AF995F8899}"/>
-    <hyperlink ref="C59" r:id="rId41" xr:uid="{3F462088-38D3-4512-86D9-BC6ABD2B3AD0}"/>
-    <hyperlink ref="H59" r:id="rId42" xr:uid="{203F9DB5-CE94-499B-827F-E5AF1B916564}"/>
-    <hyperlink ref="C60" r:id="rId43" xr:uid="{AB8D400E-9E2E-4F3B-A9CF-9D543F3D5560}"/>
-    <hyperlink ref="H60" r:id="rId44" xr:uid="{96019887-8549-4548-905B-95E00A52118B}"/>
-    <hyperlink ref="C61" r:id="rId45" xr:uid="{F84F6B5D-BC57-451B-A376-36CC4F6813B4}"/>
-    <hyperlink ref="C62" r:id="rId46" xr:uid="{8764E14E-6305-41B3-AAB0-CDB7506C5D01}"/>
-    <hyperlink ref="H62" r:id="rId47" xr:uid="{BC1B4142-A019-4895-9DE5-CB755BCF9232}"/>
-    <hyperlink ref="C63" r:id="rId48" xr:uid="{882A36CA-03FE-4B1B-BA94-D3495FFDC7BF}"/>
-    <hyperlink ref="H63" r:id="rId49" display="akshaysnaik1111@gmail.com" xr:uid="{10722048-D4DF-489A-9D15-6BB24CE4246B}"/>
-    <hyperlink ref="C64" r:id="rId50" xr:uid="{C127FA52-AF80-4052-BE5C-E71B2A74AB2B}"/>
-    <hyperlink ref="H64" r:id="rId51" display="akshaysnaik1111@gmail.com" xr:uid="{0E8E0BD5-050F-415A-B4C1-1AE4F8E98C22}"/>
-    <hyperlink ref="C65" r:id="rId52" xr:uid="{7639EC3E-30E9-4935-9778-1A7D761560F2}"/>
-    <hyperlink ref="H65" r:id="rId53" display="akshaysnaik1111@gmail.com" xr:uid="{BCC0B864-73F3-42F3-B581-E012333D7B2C}"/>
-    <hyperlink ref="C70" r:id="rId54" xr:uid="{CA92811F-0486-4A6A-BE92-C44A9DA1CB4C}"/>
-    <hyperlink ref="C71" r:id="rId55" xr:uid="{30B712BF-8DF1-4793-90A7-2AF8879110EF}"/>
-    <hyperlink ref="C72" r:id="rId56" xr:uid="{521E093E-3871-47EA-A810-0823350FF8FD}"/>
-    <hyperlink ref="C73" r:id="rId57" xr:uid="{7811296C-F17C-4C62-8C97-F41CBAC63160}"/>
-    <hyperlink ref="C74" r:id="rId58" xr:uid="{EA96D4B8-017C-44BD-9004-78A8403714BA}"/>
-    <hyperlink ref="C75" r:id="rId59" xr:uid="{4F8C5698-FEF5-47B7-BBF3-23EF5FF86C08}"/>
-    <hyperlink ref="C76" r:id="rId60" xr:uid="{82336445-45CD-4AEF-B4E1-BBF5C4A2FD8B}"/>
-    <hyperlink ref="C77" r:id="rId61" xr:uid="{598E7C42-B0CD-480A-B3FF-EEEAAE6E6109}"/>
-    <hyperlink ref="C78" r:id="rId62" xr:uid="{1AB0C829-7537-42A3-A5A7-3568F0C63A74}"/>
-    <hyperlink ref="G70" r:id="rId63" xr:uid="{84263A6E-3CE2-4A68-8C43-47B8319814CD}"/>
-    <hyperlink ref="G71" r:id="rId64" xr:uid="{D22537E4-5AD0-44A4-9C90-F6B162AB0004}"/>
-    <hyperlink ref="G72" r:id="rId65" xr:uid="{A94AC676-1879-4D35-91CD-3526087B2ED6}"/>
-    <hyperlink ref="G73" r:id="rId66" xr:uid="{605B9622-B612-4D42-9DC7-63838E1538A2}"/>
-    <hyperlink ref="G75" r:id="rId67" xr:uid="{DE96DBAE-2EFE-479A-9525-23DB9261E1BC}"/>
-    <hyperlink ref="G77" r:id="rId68" xr:uid="{AB845F8F-9B99-47CD-B542-652766B42D0D}"/>
-    <hyperlink ref="G78" r:id="rId69" display="prajwal8@gmail.com" xr:uid="{A81CBAA8-E78C-4901-B0F3-4C0156D61F19}"/>
-    <hyperlink ref="C79" r:id="rId70" xr:uid="{EEA40352-7FAB-4E91-B4D0-AA8D74632D7E}"/>
-    <hyperlink ref="C80" r:id="rId71" xr:uid="{0FD76C9A-4D02-48C7-BC39-DD4BC48C844D}"/>
-    <hyperlink ref="G79" r:id="rId72" display="prajwal8@gmail" xr:uid="{03A2BC9B-A6FE-4ABD-BCD7-F2CA6E5CD40A}"/>
-    <hyperlink ref="G80" r:id="rId73" xr:uid="{AFF3D6FA-9926-4621-969B-8E626C795B33}"/>
-    <hyperlink ref="C81" r:id="rId74" xr:uid="{686BEDCF-16C1-4B17-BD93-BE2707E3486A}"/>
-    <hyperlink ref="G81" r:id="rId75" xr:uid="{8A23E30A-62C3-4752-8B74-9E371A079F4B}"/>
-    <hyperlink ref="C82" r:id="rId76" xr:uid="{4A7A553E-0629-4969-A195-8C040F60F4F8}"/>
-    <hyperlink ref="G82" r:id="rId77" xr:uid="{BA2508D0-0E3D-46A5-A89A-2E8EC3A43F2B}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{62C287CC-7DEF-48D4-9E0A-8BC6BD1B69FA}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{8B7CF241-6861-46FE-83DC-74406F9E963C}"/>
+    <hyperlink ref="C42" r:id="rId23" xr:uid="{E949126B-B907-46E3-AF76-24E035A7869E}"/>
+    <hyperlink ref="C43" r:id="rId24" xr:uid="{08F80FF0-A868-44AF-9632-7D25D86B3557}"/>
+    <hyperlink ref="C44" r:id="rId25" xr:uid="{CAD07878-9DCF-4030-A4F4-0651FB8667F5}"/>
+    <hyperlink ref="C45" r:id="rId26" xr:uid="{3D61602A-E190-451F-89B8-77058731EAA6}"/>
+    <hyperlink ref="C46" r:id="rId27" display="kishore8@gmail.com" xr:uid="{8C249AB3-8159-4921-84FE-88B486C89713}"/>
+    <hyperlink ref="C47" r:id="rId28" display="kishore8@gmail.com" xr:uid="{EBDA2042-E14A-4C8F-8FBF-68534BF86960}"/>
+    <hyperlink ref="C48" r:id="rId29" xr:uid="{00080ADC-B800-49B4-9002-E8605C950633}"/>
+    <hyperlink ref="C49" r:id="rId30" xr:uid="{D94BDB8F-48F5-4924-A062-9A5EEDAFFA98}"/>
+    <hyperlink ref="C39" r:id="rId31" xr:uid="{95301F26-F21B-4871-9F32-E23AD7EC623E}"/>
+    <hyperlink ref="C40" r:id="rId32" xr:uid="{5F59F5AB-7D15-44CE-A943-AF0AD92A6E69}"/>
+    <hyperlink ref="C54" r:id="rId33" xr:uid="{B4D327F6-4FAB-44B2-90C5-8330EBA3510D}"/>
+    <hyperlink ref="C55" r:id="rId34" xr:uid="{7376DCF3-8CCA-4695-BBE3-F474438307BD}"/>
+    <hyperlink ref="H54" r:id="rId35" xr:uid="{33A28DE7-2E88-419B-A9B4-284FAD875B46}"/>
+    <hyperlink ref="H55" r:id="rId36" xr:uid="{C1F7F2B7-9ACC-4FA5-AB90-64638D852111}"/>
+    <hyperlink ref="C56" r:id="rId37" xr:uid="{300389E4-79FD-469D-AE12-32FA622EEE9F}"/>
+    <hyperlink ref="H56" r:id="rId38" xr:uid="{2C1A9E6C-C74F-4A26-914F-E496499C0253}"/>
+    <hyperlink ref="C57" r:id="rId39" xr:uid="{A4F142FA-A82F-422A-B544-A1AF995F8899}"/>
+    <hyperlink ref="C58" r:id="rId40" xr:uid="{3F462088-38D3-4512-86D9-BC6ABD2B3AD0}"/>
+    <hyperlink ref="H58" r:id="rId41" xr:uid="{203F9DB5-CE94-499B-827F-E5AF1B916564}"/>
+    <hyperlink ref="C59" r:id="rId42" xr:uid="{AB8D400E-9E2E-4F3B-A9CF-9D543F3D5560}"/>
+    <hyperlink ref="H59" r:id="rId43" xr:uid="{96019887-8549-4548-905B-95E00A52118B}"/>
+    <hyperlink ref="C60" r:id="rId44" xr:uid="{F84F6B5D-BC57-451B-A376-36CC4F6813B4}"/>
+    <hyperlink ref="C61" r:id="rId45" xr:uid="{8764E14E-6305-41B3-AAB0-CDB7506C5D01}"/>
+    <hyperlink ref="H61" r:id="rId46" xr:uid="{BC1B4142-A019-4895-9DE5-CB755BCF9232}"/>
+    <hyperlink ref="C62" r:id="rId47" xr:uid="{882A36CA-03FE-4B1B-BA94-D3495FFDC7BF}"/>
+    <hyperlink ref="H62" r:id="rId48" display="akshaysnaik1111@gmail.com" xr:uid="{10722048-D4DF-489A-9D15-6BB24CE4246B}"/>
+    <hyperlink ref="C63" r:id="rId49" xr:uid="{C127FA52-AF80-4052-BE5C-E71B2A74AB2B}"/>
+    <hyperlink ref="H63" r:id="rId50" display="akshaysnaik1111@gmail.com" xr:uid="{0E8E0BD5-050F-415A-B4C1-1AE4F8E98C22}"/>
+    <hyperlink ref="C64" r:id="rId51" xr:uid="{7639EC3E-30E9-4935-9778-1A7D761560F2}"/>
+    <hyperlink ref="H64" r:id="rId52" display="akshaysnaik1111@gmail.com" xr:uid="{BCC0B864-73F3-42F3-B581-E012333D7B2C}"/>
+    <hyperlink ref="C69" r:id="rId53" xr:uid="{CA92811F-0486-4A6A-BE92-C44A9DA1CB4C}"/>
+    <hyperlink ref="C70" r:id="rId54" xr:uid="{30B712BF-8DF1-4793-90A7-2AF8879110EF}"/>
+    <hyperlink ref="C71" r:id="rId55" xr:uid="{521E093E-3871-47EA-A810-0823350FF8FD}"/>
+    <hyperlink ref="C72" r:id="rId56" xr:uid="{7811296C-F17C-4C62-8C97-F41CBAC63160}"/>
+    <hyperlink ref="C73" r:id="rId57" xr:uid="{EA96D4B8-017C-44BD-9004-78A8403714BA}"/>
+    <hyperlink ref="C74" r:id="rId58" xr:uid="{4F8C5698-FEF5-47B7-BBF3-23EF5FF86C08}"/>
+    <hyperlink ref="C75" r:id="rId59" xr:uid="{82336445-45CD-4AEF-B4E1-BBF5C4A2FD8B}"/>
+    <hyperlink ref="C76" r:id="rId60" xr:uid="{598E7C42-B0CD-480A-B3FF-EEEAAE6E6109}"/>
+    <hyperlink ref="C77" r:id="rId61" xr:uid="{1AB0C829-7537-42A3-A5A7-3568F0C63A74}"/>
+    <hyperlink ref="G69" r:id="rId62" xr:uid="{84263A6E-3CE2-4A68-8C43-47B8319814CD}"/>
+    <hyperlink ref="G70" r:id="rId63" xr:uid="{D22537E4-5AD0-44A4-9C90-F6B162AB0004}"/>
+    <hyperlink ref="G71" r:id="rId64" xr:uid="{A94AC676-1879-4D35-91CD-3526087B2ED6}"/>
+    <hyperlink ref="G72" r:id="rId65" xr:uid="{605B9622-B612-4D42-9DC7-63838E1538A2}"/>
+    <hyperlink ref="G74" r:id="rId66" xr:uid="{DE96DBAE-2EFE-479A-9525-23DB9261E1BC}"/>
+    <hyperlink ref="G76" r:id="rId67" xr:uid="{AB845F8F-9B99-47CD-B542-652766B42D0D}"/>
+    <hyperlink ref="G77" r:id="rId68" display="prajwal8@gmail.com" xr:uid="{A81CBAA8-E78C-4901-B0F3-4C0156D61F19}"/>
+    <hyperlink ref="C78" r:id="rId69" xr:uid="{EEA40352-7FAB-4E91-B4D0-AA8D74632D7E}"/>
+    <hyperlink ref="C79" r:id="rId70" xr:uid="{0FD76C9A-4D02-48C7-BC39-DD4BC48C844D}"/>
+    <hyperlink ref="G78" r:id="rId71" display="prajwal8@gmail" xr:uid="{03A2BC9B-A6FE-4ABD-BCD7-F2CA6E5CD40A}"/>
+    <hyperlink ref="G79" r:id="rId72" xr:uid="{AFF3D6FA-9926-4621-969B-8E626C795B33}"/>
+    <hyperlink ref="C80" r:id="rId73" xr:uid="{686BEDCF-16C1-4B17-BD93-BE2707E3486A}"/>
+    <hyperlink ref="G80" r:id="rId74" xr:uid="{8A23E30A-62C3-4752-8B74-9E371A079F4B}"/>
+    <hyperlink ref="C81" r:id="rId75" xr:uid="{4A7A553E-0629-4969-A195-8C040F60F4F8}"/>
+    <hyperlink ref="G81" r:id="rId76" xr:uid="{BA2508D0-0E3D-46A5-A89A-2E8EC3A43F2B}"/>
+    <hyperlink ref="C16" r:id="rId77" xr:uid="{1D47932E-FA85-461D-BA4C-071B2CE662FB}"/>
+    <hyperlink ref="C17" r:id="rId78" xr:uid="{0F45F183-FE2A-44EE-B340-64CFC178BBA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
--- a/testdata/datadrivenfile.xlsx
+++ b/testdata/datadrivenfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TutorialsNinj Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A591E5F-CFAB-4726-AC36-1956F4103744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C864BEB-DE9D-409E-9D29-115620F28CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="0" windowWidth="20400" windowHeight="10920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="111">
   <si>
     <t>TestCase</t>
   </si>
@@ -170,21 +170,9 @@
     <t>HP LP3065</t>
   </si>
   <si>
-    <t>kishore8@gmail</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
-    <t>kishore8@.com</t>
-  </si>
-  <si>
-    <t>kishore8.com</t>
-  </si>
-  <si>
-    <t>kishre8@gmail.com</t>
-  </si>
-  <si>
     <t>123452</t>
   </si>
   <si>
@@ -321,18 +309,105 @@
   </si>
   <si>
     <t>abcde</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>HP LP</t>
+  </si>
+  <si>
+    <t>ravi8@gmail.com</t>
+  </si>
+  <si>
+    <t>ravi8@gmail</t>
+  </si>
+  <si>
+    <t>ravi8@.com</t>
+  </si>
+  <si>
+    <t>ravi8.com</t>
+  </si>
+  <si>
+    <t>suraya8@gmail.com</t>
+  </si>
+  <si>
+    <t>searchproduct</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>MacBook</t>
+  </si>
+  <si>
+    <t>MacBook Air</t>
+  </si>
+  <si>
+    <t>MacBook Pro</t>
+  </si>
+  <si>
+    <t>searchproductTest</t>
+  </si>
+  <si>
+    <t>iMacBoo</t>
+  </si>
+  <si>
+    <t>iMacBook Air</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -521,9 +596,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -536,103 +611,124 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -946,7 +1042,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -990,7 +1086,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -998,9 +1094,17 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1015,10 +1119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="B78" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1034,8 +1138,7 @@
     <col min="9" max="9" width="17.7109375" style="4" customWidth="1"/>
     <col min="10" max="10" width="14" style="4" customWidth="1"/>
     <col min="11" max="11" width="19.42578125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="4" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="4"/>
+    <col min="12" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1060,13 +1163,13 @@
         <v>11</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>7</v>
@@ -1089,7 +1192,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G3" s="22" t="s">
         <v>30</v>
@@ -1118,7 +1221,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4" s="22" t="s">
         <v>30</v>
@@ -1147,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G5" s="22" t="s">
         <v>30</v>
@@ -1170,7 +1273,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="8"/>
       <c r="F6" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G6" s="22" t="s">
         <v>30</v>
@@ -1197,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7" s="22" t="s">
         <v>30</v>
@@ -1224,7 +1327,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G8" s="22" t="s">
         <v>30</v>
@@ -1280,7 +1383,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="22" t="s">
@@ -1307,7 +1410,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G11" s="22" t="s">
         <v>30</v>
@@ -1334,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>16</v>
@@ -1363,13 +1466,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="23" t="s">
         <v>30</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>16</v>
@@ -1392,7 +1495,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22"/>
@@ -1417,13 +1520,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="H15" s="33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>16</v>
@@ -1445,8 +1548,8 @@
       <c r="E16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>96</v>
+      <c r="F16" s="38" t="s">
+        <v>92</v>
       </c>
       <c r="G16" s="22" t="s">
         <v>30</v>
@@ -1474,8 +1577,8 @@
       <c r="E17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="39" t="s">
-        <v>99</v>
+      <c r="F17" s="38" t="s">
+        <v>95</v>
       </c>
       <c r="G17" s="22" t="s">
         <v>30</v>
@@ -1488,26 +1591,20 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="7" t="s">
@@ -1708,7 +1805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1725,7 +1822,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1742,12 +1839,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>1</v>
       </c>
@@ -1760,14 +1857,17 @@
       <c r="D38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
@@ -1775,19 +1875,22 @@
         <v>13</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D39" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="G39" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1795,19 +1898,22 @@
         <v>14</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D40" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="G40" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
@@ -1818,14 +1924,17 @@
       <c r="D41" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F41" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
@@ -1833,17 +1942,20 @@
         <v>14</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
@@ -1851,19 +1963,22 @@
         <v>13</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1871,19 +1986,22 @@
         <v>14</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E44" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F44" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>3</v>
       </c>
@@ -1891,19 +2009,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F45" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>3</v>
       </c>
@@ -1911,19 +2032,22 @@
         <v>13</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>3</v>
       </c>
@@ -1936,14 +2060,17 @@
       <c r="D47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,19 +2078,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="E48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F48" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F48" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="G48" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -1971,24 +2101,27 @@
         <v>13</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="G49" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="3" t="s">
         <v>1</v>
       </c>
@@ -2002,107 +2135,98 @@
         <v>6</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="H54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I54" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J54" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K54" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F55" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J55" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="L53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F54" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I54" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K54" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L54" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F55" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I55" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J55" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="K55" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L55" s="25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="5" t="s">
         <v>3</v>
       </c>
@@ -2110,37 +2234,34 @@
         <v>14</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J56" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K56" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L56" s="24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="5" t="s">
         <v>3</v>
       </c>
@@ -2148,13 +2269,13 @@
         <v>13</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -2162,13 +2283,10 @@
       <c r="I57" s="24"/>
       <c r="J57" s="24"/>
       <c r="K57" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L57" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="5" t="s">
         <v>3</v>
       </c>
@@ -2176,35 +2294,32 @@
         <v>13</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I58" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J58" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K58" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L58" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="5" t="s">
         <v>3</v>
       </c>
@@ -2212,35 +2327,32 @@
         <v>14</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G59" s="24"/>
       <c r="H59" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I59" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J59" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K59" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L59" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="5" t="s">
         <v>3</v>
       </c>
@@ -2248,35 +2360,32 @@
         <v>13</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G60" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J60" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K60" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L60" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="5" t="s">
         <v>3</v>
       </c>
@@ -2284,35 +2393,32 @@
         <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G61" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H61" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="I61" s="24"/>
       <c r="J61" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K61" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L61" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="5" t="s">
         <v>3</v>
       </c>
@@ -2320,37 +2426,34 @@
         <v>14</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I62" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J62" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K62" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L62" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="5" t="s">
         <v>3</v>
       </c>
@@ -2358,77 +2461,71 @@
         <v>13</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H63" s="6" t="s">
         <v>43</v>
       </c>
       <c r="I63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="J63" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K63" s="24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F64" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="H64" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J63" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="K63" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="L63" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E64" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="I64" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J64" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K64" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="L64" s="24" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="29" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2451,10 +2548,10 @@
         <v>11</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H68" s="30" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>7</v>
@@ -2468,22 +2565,22 @@
         <v>13</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F69" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H69" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I69" s="28" t="s">
         <v>9</v>
@@ -2497,22 +2594,22 @@
         <v>14</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F70" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="H70" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I70" s="28" t="s">
         <v>9</v>
@@ -2526,7 +2623,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>30</v>
@@ -2536,10 +2633,10 @@
         <v>15</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H71" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I71" s="31" t="s">
         <v>16</v>
@@ -2553,20 +2650,20 @@
         <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="28"/>
       <c r="G72" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I72" s="28" t="s">
         <v>16</v>
@@ -2580,20 +2677,20 @@
         <v>14</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D73" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F73" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I73" s="28" t="s">
         <v>16</v>
@@ -2607,22 +2704,22 @@
         <v>8</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F74" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H74" s="28"/>
-      <c r="I74" s="28" t="s">
+      <c r="I74" s="46" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2634,7 +2731,7 @@
         <v>13</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>30</v>
@@ -2655,22 +2752,22 @@
         <v>14</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F76" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H76" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I76" s="28" t="s">
         <v>16</v>
@@ -2684,22 +2781,22 @@
         <v>13</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F77" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H77" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I77" s="28" t="s">
         <v>16</v>
@@ -2713,13 +2810,13 @@
         <v>14</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D78" s="28" t="s">
         <v>30</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F78" s="28" t="s">
         <v>15</v>
@@ -2728,7 +2825,7 @@
         <v>43</v>
       </c>
       <c r="H78" s="28" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I78" s="28" t="s">
         <v>16</v>
@@ -2742,22 +2839,22 @@
         <v>13</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F79" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G79" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="28" t="s">
         <v>91</v>
-      </c>
-      <c r="H79" s="28" t="s">
-        <v>95</v>
       </c>
       <c r="I79" s="28" t="s">
         <v>16</v>
@@ -2771,22 +2868,22 @@
         <v>13</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F80" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H80" s="28" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I80" s="28" t="s">
         <v>16</v>
@@ -2800,29 +2897,195 @@
         <v>13</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F81" s="28" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H81" s="28" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I81" s="28" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F85" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="G86" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E90" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G90" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E91" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="G91" s="46" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="25" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1" xr:uid="{F2868DA8-3F23-42F4-911E-DE2374F4C520}"/>
     <hyperlink ref="C8" r:id="rId2" xr:uid="{515660FB-020A-435D-9519-D146A3D5DB07}"/>
@@ -2902,8 +3165,9 @@
     <hyperlink ref="G81" r:id="rId76" xr:uid="{BA2508D0-0E3D-46A5-A89A-2E8EC3A43F2B}"/>
     <hyperlink ref="C16" r:id="rId77" xr:uid="{1D47932E-FA85-461D-BA4C-071B2CE662FB}"/>
     <hyperlink ref="C17" r:id="rId78" xr:uid="{0F45F183-FE2A-44EE-B340-64CFC178BBA8}"/>
+    <hyperlink ref="C86" r:id="rId79" xr:uid="{BE1CD593-22EB-4BC7-A09F-D2E869E9D60D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>